--- a/covid-ed-ig/ValueSet-covid-19-lab-lymphocytes.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-lab-lymphocytes.xlsx
@@ -76,7 +76,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>001</t>
   </si>
   <si>
     <t>Description</t>

--- a/covid-ed-ig/ValueSet-covid-19-lab-lymphocytes.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-lab-lymphocytes.xlsx
@@ -76,7 +76,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>001</t>
+    <t>World</t>
   </si>
   <si>
     <t>Description</t>

--- a/covid-ed-ig/ValueSet-covid-19-lab-lymphocytes.xlsx
+++ b/covid-ed-ig/ValueSet-covid-19-lab-lymphocytes.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-02-26T20:00:00+00:00</t>
+    <t>2022-01-04T20:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
